--- a/medicine/Enfance/Alice_Pujo/Alice_Pujo.xlsx
+++ b/medicine/Enfance/Alice_Pujo/Alice_Pujo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Pujo, née le 9 juin 1869 à Rignac (Aveyron) et morte le 7 février 1953 à Paris, est une écrivaine de langue française, spécialisée dans la littérature populaire et la littérature pour la jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Pujo est la sœur de Maurice Pujo, fondateur des Camelots du roi[1]. Elle est la petite-fille de Alexis-Solange Pujo (1798-1886), propriétaire d'une plantation de café à Dondon (Saint-Domingue) et qui a bénéficié de l'indemnisation de la France par la république d'Haïti[2],[3].
-Plusieurs de ses œuvres ont été publiées en feuilleton par L'Action française[4], par exemple : Pour lui !, du 27/09/1912 au 15/07/1914, Rose Perrin, du 11/07/1919 au 24/09/1919, Renée, du 16/08/1920 au 05/10/1920[5], par La Liberté[6], par La Revue moderne (Montréal)[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice Pujo est la sœur de Maurice Pujo, fondateur des Camelots du roi. Elle est la petite-fille de Alexis-Solange Pujo (1798-1886), propriétaire d'une plantation de café à Dondon (Saint-Domingue) et qui a bénéficié de l'indemnisation de la France par la république d'Haïti,.
+Plusieurs de ses œuvres ont été publiées en feuilleton par L'Action française, par exemple : Pour lui !, du 27/09/1912 au 15/07/1914, Rose Perrin, du 11/07/1919 au 24/09/1919, Renée, du 16/08/1920 au 05/10/1920, par La Liberté, par La Revue moderne (Montréal).
 Elle figure dans Romans à lire et romans à proscrire. Essai de classification au point de vue moral des principaux romans et romanciers (1500-1928) de l'abbé Louis Bethléem dans la section « Romans propres à intéresser la jeunesse et qui peuvent être généralement laissés entre toutes les mains »[a].
 </t>
         </is>
@@ -544,18 +558,20 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fleur de France (Linette et Nilo.)
 Champcevray
 L'Heureuse méprise, comédie en 1 acte pour jeunes filles, paroles de Alice Pujo
 La Cigale ayant chanté
-La Huttière[8]
+La Huttière
 La Tour des aigles
 Le mystère de Golconde
 Le Petit Roi du Bengale
 Le Réveil des îles d'or
-Le Roi de l'or, BD[b], roman cinématique, illustré par Damblans[9]
+Le Roi de l'or, BD[b], roman cinématique, illustré par Damblans
 Le Sapin de Noël
 Le Signe rouge
 Phyllis [lire en ligne]
@@ -565,50 +581,120 @@
 Se ela soubesse
 La Tour des aigles
 Vers l'oasis
-Les Aventures de Richard Bliss, millionaire, traduction de E. Phillips Oppenheim, The Amazing Quest of Mr. Ernest Bliss
-Traductions
-Arieta, version espagnole de Antonio Guardiola, illustration de Enrique Ochoa[10]
-Cardos y rosas, traducción castellana : Carolina Toral Peñaranda[11]
-Rosa Perrin, traduzione di Maria Rita Roberti di Castelvero[12]
-Mon ami Pif
-Dans La Semaine de Suzette du n° 32 du 12 septembre 1918 au n° 38 du 24 octobre 1918, illustré par Raymond de La Nézière[13].
+Les Aventures de Richard Bliss, millionaire, traduction de E. Phillips Oppenheim, The Amazing Quest of Mr. Ernest Bliss</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_Pujo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Pujo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arieta, version espagnole de Antonio Guardiola, illustration de Enrique Ochoa
+Cardos y rosas, traducción castellana : Carolina Toral Peñaranda
+Rosa Perrin, traduzione di Maria Rita Roberti di Castelvero</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_Pujo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Pujo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mon ami Pif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans La Semaine de Suzette du n° 32 du 12 septembre 1918 au n° 38 du 24 octobre 1918, illustré par Raymond de La Nézière.
 Mon ami Pif grand justicier, n° 32
 Mon ami Pif fait ses invitations, n° 33
 Un tour de mon ami Pif, n° 34
 Mon ami Pif marchand de journaux, n° 35
 Mon ami Pif rêve de liberté, n° 36
 Mon ami Pif a une idée lumineuse, n° 37
-Mon ami Pif retrouve son foyer, n° 38[14]</t>
+Mon ami Pif retrouve son foyer, n° 38</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Alice_Pujo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_Pujo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Paul Collin de la Société des gens de lettres, 1922[15]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Paul Collin de la Société des gens de lettres, 1922</t>
         </is>
       </c>
     </row>
